--- a/HD_DANE_1.xlsx
+++ b/HD_DANE_1.xlsx
@@ -65,61 +65,61 @@
     <t>Everett</t>
   </si>
   <si>
+    <t>Napęd</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Rasmussen</t>
+  </si>
+  <si>
+    <t>Olej</t>
+  </si>
+  <si>
+    <t>Układ hamulcowy</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>Szyba</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Silnik</t>
+  </si>
+  <si>
+    <t>Truwerpegistor International Corp.</t>
+  </si>
+  <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Kirk</t>
-  </si>
-  <si>
-    <t>Allison</t>
-  </si>
-  <si>
-    <t>Rasmussen</t>
-  </si>
-  <si>
-    <t>Olej</t>
-  </si>
-  <si>
-    <t>Układ hamulcowy</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Munoz</t>
-  </si>
-  <si>
-    <t>Szyba</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>Silnik</t>
-  </si>
-  <si>
-    <t>Truwerpegistor International Corp.</t>
-  </si>
-  <si>
-    <t>Napęd</t>
   </si>
   <si>
     <t>TAK</t>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3">
         <v>43221.4840277778</v>
@@ -1485,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3">
         <v>43190.7534722222</v>
@@ -1531,7 +1531,7 @@
         <v>43368.7277777778</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -1542,16 +1542,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>43208.1270833333</v>
+        <v>43368.7277777778</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -1562,16 +1562,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>43279.1229166667</v>
+        <v>43208.1270833333</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
